--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_42_30.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_42_30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6694.7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>7297</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6268</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2292138973871867</v>
+        <v>7159</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4, 13, 40, 25, 35, 33, 36, 31, 22, 28, 20, 38, 24, 6, 9, 27, 42, 14, 12, 8, 18, 3, 26, 11, 21, 16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 12 -&gt; 11 -&gt; 14 -&gt; 10 -&gt; 4 -&gt; 22 -&gt; 21 -&gt; 9 -&gt; 27 -&gt; 26 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 38 -&gt; 40 -&gt; 42 -&gt; 35 -&gt; 25 -&gt; 6 -&gt; 1 -&gt; 8 -&gt; 3 -&gt; 33 -&gt; 20 -&gt; 13 -&gt; 36 -&gt; 16 -&gt; 18 -&gt; 23 -&gt; 24 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 11 -&gt; 10 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 8 -&gt; 9 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 42 -&gt; 40 -&gt; 39 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 6 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 33 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 17 -&gt; 16 -&gt; 15 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 23 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2270059585571289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>7220.666666666667</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>7662</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6318</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1890694379806518</v>
+        <v>6719</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 12, 19, 31, 39, 38, 14, 26, 13, 40, 15, 24, 7, 1, 20, 11, 32, 34, 18, 10, 36, 5, 23, 29, 28, 42, 37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 24 -&gt; 13 -&gt; 34 -&gt; 27 -&gt; 28 -&gt; 40 -&gt; 36 -&gt; 29 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 32 -&gt; 19 -&gt; 18 -&gt; 21 -&gt; 26 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 12 -&gt; 7 -&gt; 10 -&gt; 11 -&gt; 15 -&gt; 14 -&gt; 8 -&gt; 20 -&gt; 23 -&gt; 42 -&gt; 37 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 29 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 39 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 18 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 8 -&gt; 5 -&gt; 6 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 11 -&gt; 15 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 32 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2272992134094238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6443.833333333333</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>6946</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5763</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.247045628229777</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7089.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7584</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6395</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1834959745407105</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6708.733333333334</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7174</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5821</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1889805873235067</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6951.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7589</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4988</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2045819203058879</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7397.233333333334</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8102</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6573</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2666981458663941</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7430.933333333333</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8088</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6587</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2310571988423665</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7142.6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7766</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6282</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1922186056772868</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7502.433333333333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7973</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6935</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2487738211949666</v>
+        <v>7391</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 42, 20, 17, 16, 1, 15, 11, 37, 9, 24, 28, 5, 21, 22, 3, 2, 18, 27, 23, 13, 34, 7, 14, 41, 25, 33, 36, 40, 39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 3 -&gt; 28 -&gt; 34 -&gt; 27 -&gt; 2 -&gt; 16 -&gt; 23 -&gt; 11 -&gt; 20 -&gt; 24 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 14 -&gt; 15 -&gt; 17 -&gt; 9 -&gt; 37 -&gt; 13 -&gt; 36 -&gt; 40 -&gt; 39 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 33 -&gt; 25 -&gt; 1 -&gt; 7 -&gt; 5 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 11 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 15 -&gt; 16 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 13 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 30 -&gt; 29 -&gt; 13 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 36 -&gt; 39 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 41 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 40 -&gt; 39 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 33 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 8 -&gt; 5 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2355661392211914</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_42_30.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_42_30.xlsx
@@ -454,7 +454,7 @@
         <v>7159</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1580579280853271</v>
+        <v>0.159717321395874</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_42_30.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_42_30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>6565.833333333333</v>
       </c>
       <c r="C2" t="n">
+        <v>7112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6140</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1584909041722616</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6427.966666666666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6829</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5647</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1591569185256958</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6250.4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6755</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5387</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1612710078557332</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6833.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6475</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1599444309870402</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6334.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6855</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5532</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1662849505742391</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6318.966666666666</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6790</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5859</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1606734275817871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6678.166666666667</v>
+      </c>
+      <c r="C8" t="n">
         <v>7159</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.159717321395874</v>
+      <c r="D8" t="n">
+        <v>5812</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1638215621312459</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6623.933333333333</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7157</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5969</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1605967044830322</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6418.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6988</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5754</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1605101188023885</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6653.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7311</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5966</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1600111166636149</v>
       </c>
     </row>
   </sheetData>
